--- a/js/xlsx/Skills.xlsx
+++ b/js/xlsx/Skills.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27628"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\KGA\Documents\UnityNetworkProject\js\xlsx\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\JHW\Documents\UnityNetworkProject\js\xlsx\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CE318B2B-82C9-4D6B-9011-E13730927217}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="18000" windowHeight="9300"/>
+    <workbookView xWindow="-25110" yWindow="615" windowWidth="22980" windowHeight="13740" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -24,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="43">
   <si>
     <t>id</t>
   </si>
@@ -32,75 +33,10 @@
     <t>name</t>
   </si>
   <si>
-    <t>rarity</t>
-  </si>
-  <si>
-    <t>damage_multiplier</t>
-  </si>
-  <si>
-    <t>일반</t>
-  </si>
-  <si>
-    <t>고급</t>
-  </si>
-  <si>
-    <t>매직</t>
-  </si>
-  <si>
-    <t>유물</t>
-  </si>
-  <si>
-    <t>영웅</t>
-  </si>
-  <si>
-    <t>에픽</t>
-  </si>
-  <si>
-    <t>고대</t>
-  </si>
-  <si>
-    <t>신화</t>
-  </si>
-  <si>
-    <t>water</t>
-  </si>
-  <si>
-    <t>물결 베기</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>블리자드</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>빙하 강타</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>해신의 창</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>아쿠아 스피어</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>물 대포</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>프로즌 브레이크</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>파도 베기</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Descriptions</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>image</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -154,42 +90,100 @@
     <t>Skill_16</t>
   </si>
   <si>
-    <t>Skill_17</t>
-  </si>
-  <si>
-    <t>Skill_18</t>
-  </si>
-  <si>
-    <t>Skill_19</t>
-  </si>
-  <si>
-    <t>Skill_20</t>
-  </si>
-  <si>
     <t>아이스 애로우</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>아이스 미사일</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>프리즈</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>아이시클 애로우</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>아이스 피어싱</t>
+    <t>아이스 월</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>아이스 니들</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>아이스 토네이도</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>아이스 랜스</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>아이스 에이지</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>나스트론드</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>쥬데카</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>글라시아</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>아이스 샤드</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>아이스 캐논</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>아이스 레인</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>아이스 오브</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>아이스 해머</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>cooldown</t>
+  </si>
+  <si>
+    <t>damage_percentage</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>description</t>
+  </si>
+  <si>
+    <t>얼음 화살로 1명의 적에게 100%의 데미지로 공격합니다.</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>강력한 얼음 화살로 직선 상의 3명의 적을 꿰뚫어 150%의 데미지로 공격합니다.</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>얼음 탄환을 발사해 주변 3병의 적에게 200%의 데미지로 공격합니다.</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>더 많은 얼음 탄환을 발사해 주변 7명의 적에게 200%의 데미지로 공격합니다.</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>오브의 기운을 응축하여 주변 적 5명에게 400%의 데미지로 공격합니다.</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -536,26 +530,24 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H49"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:F49"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J3" sqref="J3"/>
+      <selection activeCell="F8" sqref="F8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="9" style="5"/>
     <col min="2" max="2" width="18.625" style="5" customWidth="1"/>
-    <col min="3" max="3" width="17.75" style="5" customWidth="1"/>
-    <col min="4" max="4" width="9" style="5"/>
-    <col min="5" max="5" width="18.875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="20" style="5" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="21" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="17.125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="69.625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="20" style="5" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="21" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="17.125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -563,527 +555,414 @@
         <v>1</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>21</v>
+        <v>37</v>
       </c>
       <c r="D1" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="E1" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="E1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="G1" s="1"/>
-      <c r="H1" s="1"/>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="F1" s="3" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" s="2">
         <v>1</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="C2" s="2"/>
-      <c r="D2" s="2"/>
-      <c r="E2" s="4"/>
-      <c r="F2" s="5" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
+        <v>20</v>
+      </c>
+      <c r="C2" t="s">
+        <v>38</v>
+      </c>
+      <c r="D2" s="4">
+        <v>100</v>
+      </c>
+      <c r="E2" s="5" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A3" s="2">
         <v>2</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="C3" s="2"/>
-      <c r="D3" s="2"/>
-      <c r="E3" s="4"/>
-      <c r="F3" s="5" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
+        <v>21</v>
+      </c>
+      <c r="C3" t="s">
+        <v>39</v>
+      </c>
+      <c r="D3" s="4">
+        <v>150</v>
+      </c>
+      <c r="E3" s="5" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A4" s="2">
         <v>3</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="C4" s="2"/>
-      <c r="D4" s="2"/>
-      <c r="E4" s="4"/>
-      <c r="F4" s="5" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
+        <v>23</v>
+      </c>
+      <c r="C4" t="s">
+        <v>40</v>
+      </c>
+      <c r="D4" s="4">
+        <v>200</v>
+      </c>
+      <c r="E4" s="5" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A5" s="2">
         <v>4</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="C5" s="2"/>
-      <c r="D5" s="2"/>
-      <c r="E5" s="4"/>
-      <c r="F5" s="5" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
+        <v>30</v>
+      </c>
+      <c r="C5" t="s">
+        <v>41</v>
+      </c>
+      <c r="D5" s="4">
+        <v>200</v>
+      </c>
+      <c r="E5" s="5" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A6" s="2">
         <v>5</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="C6" s="2"/>
-      <c r="D6" s="2"/>
-      <c r="E6" s="4"/>
-      <c r="F6" s="5" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
+        <v>33</v>
+      </c>
+      <c r="C6" t="s">
+        <v>42</v>
+      </c>
+      <c r="D6" s="4">
+        <v>400</v>
+      </c>
+      <c r="E6" s="5" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A7" s="2">
         <v>6</v>
       </c>
-      <c r="B7" s="2"/>
-      <c r="C7" s="2"/>
-      <c r="D7" s="2"/>
-      <c r="E7" s="4"/>
-      <c r="F7" s="5" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="B7" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="D7" s="4">
+        <v>500</v>
+      </c>
+      <c r="E7" s="5" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A8" s="2">
         <v>7</v>
       </c>
-      <c r="B8" s="2"/>
-      <c r="C8" s="2"/>
-      <c r="D8" s="2"/>
-      <c r="E8" s="4"/>
-      <c r="F8" s="5" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="B8" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="D8" s="4">
+        <v>600</v>
+      </c>
+      <c r="E8" s="5" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A9" s="2">
         <v>8</v>
       </c>
-      <c r="B9" s="2"/>
-      <c r="C9" s="2"/>
-      <c r="D9" s="2"/>
-      <c r="E9" s="4"/>
-      <c r="F9" s="5" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B9" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="D9" s="4">
+        <v>720</v>
+      </c>
+      <c r="E9" s="5" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="2">
         <v>9</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="C10" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="D10" s="4">
+        <v>860</v>
+      </c>
+      <c r="E10" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="D10" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="E10" s="4">
-        <v>450</v>
-      </c>
-      <c r="F10" s="5" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A11" s="2">
         <v>10</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="C11" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D11" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="E11" s="4">
-        <v>900</v>
-      </c>
-      <c r="F11" s="5" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
+        <v>25</v>
+      </c>
+      <c r="D11" s="4">
+        <v>1000</v>
+      </c>
+      <c r="E11" s="5" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A12" s="2">
         <v>11</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="C12" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D12" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="E12" s="4">
-        <v>1350</v>
-      </c>
-      <c r="F12" s="5" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
+        <v>32</v>
+      </c>
+      <c r="D12" s="4">
+        <v>2000</v>
+      </c>
+      <c r="E12" s="5" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A13" s="2">
         <v>12</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="C13" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D13" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="E13" s="4">
-        <v>1800</v>
-      </c>
-      <c r="F13" s="5" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
+        <v>31</v>
+      </c>
+      <c r="D13" s="4">
+        <v>3000</v>
+      </c>
+      <c r="E13" s="5" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A14" s="2">
         <v>13</v>
       </c>
-      <c r="B14" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="C14" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D14" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="E14" s="4">
-        <v>2250</v>
-      </c>
-      <c r="F14" s="5" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="B14" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="D14" s="4">
+        <v>3600</v>
+      </c>
+      <c r="E14" s="5" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A15" s="2">
         <v>14</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="C15" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D15" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="E15" s="4">
-        <v>2700</v>
-      </c>
-      <c r="F15" s="5" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.3">
+        <v>28</v>
+      </c>
+      <c r="D15" s="4">
+        <v>4000</v>
+      </c>
+      <c r="E15" s="5" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A16" s="2">
         <v>15</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="C16" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D16" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="E16" s="4">
-        <v>3150</v>
-      </c>
-      <c r="F16" s="5" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
+        <v>26</v>
+      </c>
+      <c r="D16" s="4">
+        <v>6000</v>
+      </c>
+      <c r="E16" s="5" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A17" s="2">
         <v>16</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="C17" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D17" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="E17" s="4">
-        <v>3600</v>
-      </c>
-      <c r="F17" s="5" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A18" s="2">
-        <v>17</v>
-      </c>
+        <v>27</v>
+      </c>
+      <c r="D17" s="4">
+        <v>8000</v>
+      </c>
+      <c r="E17" s="5" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A18" s="2"/>
       <c r="B18" s="2"/>
-      <c r="C18" s="2"/>
-      <c r="D18" s="2"/>
-      <c r="E18" s="4"/>
-      <c r="F18" s="5" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A19" s="2">
-        <v>18</v>
-      </c>
+      <c r="C18" s="4"/>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A19" s="2"/>
       <c r="B19" s="2"/>
-      <c r="C19" s="2"/>
-      <c r="D19" s="2"/>
-      <c r="E19" s="4"/>
-      <c r="F19" s="5" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A20" s="2">
-        <v>19</v>
-      </c>
+      <c r="C19" s="4"/>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A20" s="2"/>
       <c r="B20" s="2"/>
-      <c r="C20" s="2"/>
-      <c r="D20" s="2"/>
-      <c r="E20" s="4"/>
-      <c r="F20" s="5" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A21" s="2">
-        <v>20</v>
-      </c>
+      <c r="C20" s="4"/>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A21" s="2"/>
       <c r="B21" s="2"/>
-      <c r="C21" s="2"/>
-      <c r="D21" s="2"/>
-      <c r="E21" s="4"/>
-      <c r="F21" s="5" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="C21" s="4"/>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A22" s="2"/>
       <c r="B22" s="2"/>
-      <c r="C22" s="2"/>
-      <c r="D22" s="2"/>
-      <c r="E22" s="4"/>
-    </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="C22" s="4"/>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A23" s="2"/>
       <c r="B23" s="2"/>
-      <c r="C23" s="2"/>
-      <c r="D23" s="2"/>
-      <c r="E23" s="4"/>
-    </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="C23" s="4"/>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A24" s="2"/>
       <c r="B24" s="2"/>
-      <c r="C24" s="2"/>
-      <c r="D24" s="2"/>
-      <c r="E24" s="4"/>
-    </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="C24" s="4"/>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A25" s="2"/>
       <c r="B25" s="2"/>
-      <c r="C25" s="2"/>
-      <c r="D25" s="2"/>
-      <c r="E25" s="4"/>
-    </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="C25" s="4"/>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A26" s="2"/>
       <c r="B26" s="2"/>
-      <c r="C26" s="2"/>
-      <c r="D26" s="2"/>
-      <c r="E26" s="4"/>
-    </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="C26" s="4"/>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A27" s="2"/>
       <c r="B27" s="2"/>
-      <c r="C27" s="2"/>
-      <c r="D27" s="2"/>
-      <c r="E27" s="4"/>
-    </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="C27" s="4"/>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A28" s="2"/>
       <c r="B28" s="2"/>
-      <c r="C28" s="2"/>
-      <c r="D28" s="2"/>
-      <c r="E28" s="4"/>
-    </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="C28" s="4"/>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A29" s="2"/>
       <c r="B29" s="2"/>
-      <c r="C29" s="2"/>
-      <c r="D29" s="2"/>
-      <c r="E29" s="4"/>
-    </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="C29" s="4"/>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A30" s="2"/>
       <c r="B30" s="2"/>
-      <c r="C30" s="2"/>
-      <c r="D30" s="2"/>
-      <c r="E30" s="4"/>
-    </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="C30" s="4"/>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A31" s="2"/>
       <c r="B31" s="2"/>
-      <c r="C31" s="2"/>
-      <c r="D31" s="2"/>
-      <c r="E31" s="4"/>
-    </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="C31" s="4"/>
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A32" s="2"/>
       <c r="B32" s="2"/>
-      <c r="C32" s="2"/>
-      <c r="D32" s="2"/>
-      <c r="E32" s="4"/>
-    </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="C32" s="4"/>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A33" s="2"/>
       <c r="B33" s="2"/>
-      <c r="C33" s="2"/>
-      <c r="D33" s="2"/>
-      <c r="E33" s="4"/>
-    </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="C33" s="4"/>
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A34" s="2"/>
       <c r="B34" s="2"/>
-      <c r="C34" s="2"/>
-      <c r="D34" s="2"/>
-      <c r="E34" s="4"/>
-    </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="C34" s="4"/>
+    </row>
+    <row r="35" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A35" s="2"/>
       <c r="B35" s="2"/>
-      <c r="C35" s="2"/>
-      <c r="D35" s="2"/>
-      <c r="E35" s="4"/>
-    </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="C35" s="4"/>
+    </row>
+    <row r="36" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A36" s="2"/>
       <c r="B36" s="2"/>
-      <c r="C36" s="2"/>
-      <c r="D36" s="2"/>
-      <c r="E36" s="4"/>
-    </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="C36" s="4"/>
+    </row>
+    <row r="37" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A37" s="2"/>
       <c r="B37" s="2"/>
-      <c r="C37" s="2"/>
-      <c r="D37" s="2"/>
-      <c r="E37" s="4"/>
-    </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="C37" s="4"/>
+    </row>
+    <row r="38" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A38" s="2"/>
-      <c r="C38" s="2"/>
-      <c r="D38" s="2"/>
-      <c r="E38" s="4"/>
-    </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="C38" s="4"/>
+    </row>
+    <row r="39" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A39" s="2"/>
       <c r="B39" s="2"/>
-      <c r="C39" s="2"/>
-      <c r="D39" s="2"/>
-      <c r="E39" s="4"/>
-    </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="C39" s="4"/>
+    </row>
+    <row r="40" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A40" s="2"/>
       <c r="B40" s="2"/>
-      <c r="C40" s="2"/>
-      <c r="D40" s="2"/>
-      <c r="E40" s="4"/>
-    </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="C40" s="4"/>
+    </row>
+    <row r="41" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A41" s="2"/>
-      <c r="C41" s="2"/>
-      <c r="D41" s="2"/>
-      <c r="E41" s="4"/>
-    </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="C41" s="4"/>
+    </row>
+    <row r="42" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A42" s="2"/>
       <c r="B42" s="2"/>
-      <c r="C42" s="2"/>
-      <c r="D42" s="2"/>
-      <c r="E42" s="4"/>
-    </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="C42" s="4"/>
+    </row>
+    <row r="43" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A43" s="2"/>
       <c r="B43" s="2"/>
-      <c r="C43" s="2"/>
-      <c r="D43" s="2"/>
-      <c r="E43" s="4"/>
-    </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="C43" s="4"/>
+    </row>
+    <row r="44" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A44" s="2"/>
       <c r="B44" s="2"/>
-      <c r="C44" s="2"/>
-      <c r="D44" s="2"/>
-      <c r="E44" s="4"/>
-    </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="C44" s="4"/>
+    </row>
+    <row r="45" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A45" s="2"/>
       <c r="B45" s="2"/>
-      <c r="C45" s="2"/>
-      <c r="D45" s="2"/>
-      <c r="E45" s="4"/>
-    </row>
-    <row r="46" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="C45" s="4"/>
+    </row>
+    <row r="46" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A46" s="2"/>
       <c r="B46" s="2"/>
-      <c r="C46" s="2"/>
-      <c r="D46" s="2"/>
-      <c r="E46" s="4"/>
-    </row>
-    <row r="47" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="C46" s="4"/>
+    </row>
+    <row r="47" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A47" s="2"/>
       <c r="B47" s="2"/>
-      <c r="C47" s="2"/>
-      <c r="D47" s="2"/>
-      <c r="E47" s="4"/>
-    </row>
-    <row r="48" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="C47" s="4"/>
+    </row>
+    <row r="48" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A48" s="2"/>
       <c r="B48" s="2"/>
-      <c r="C48" s="2"/>
-      <c r="D48" s="2"/>
-      <c r="E48" s="4"/>
-    </row>
-    <row r="49" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="C48" s="4"/>
+    </row>
+    <row r="49" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A49" s="2"/>
       <c r="B49" s="2"/>
-      <c r="C49" s="2"/>
-      <c r="D49" s="2"/>
-      <c r="E49" s="4"/>
+      <c r="C49" s="4"/>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>

--- a/js/xlsx/Skills.xlsx
+++ b/js/xlsx/Skills.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27628"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\JHW\Documents\UnityNetworkProject\js\xlsx\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\KGA\Documents\UnityNetworkProject\js\xlsx\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CE318B2B-82C9-4D6B-9011-E13730927217}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-25110" yWindow="615" windowWidth="22980" windowHeight="13740" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-25110" yWindow="615" windowWidth="22980" windowHeight="13740"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="54">
   <si>
     <t>id</t>
   </si>
@@ -41,55 +40,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>Skill_1</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Skill_2</t>
-  </si>
-  <si>
-    <t>Skill_3</t>
-  </si>
-  <si>
-    <t>Skill_4</t>
-  </si>
-  <si>
-    <t>Skill_5</t>
-  </si>
-  <si>
-    <t>Skill_6</t>
-  </si>
-  <si>
-    <t>Skill_7</t>
-  </si>
-  <si>
-    <t>Skill_8</t>
-  </si>
-  <si>
-    <t>Skill_9</t>
-  </si>
-  <si>
-    <t>Skill_10</t>
-  </si>
-  <si>
-    <t>Skill_11</t>
-  </si>
-  <si>
-    <t>Skill_12</t>
-  </si>
-  <si>
-    <t>Skill_13</t>
-  </si>
-  <si>
-    <t>Skill_14</t>
-  </si>
-  <si>
-    <t>Skill_15</t>
-  </si>
-  <si>
-    <t>Skill_16</t>
-  </si>
-  <si>
     <t>아이스 애로우</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -160,30 +110,123 @@
     <t>description</t>
   </si>
   <si>
-    <t>얼음 화살로 1명의 적에게 100%의 데미지로 공격합니다.</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>강력한 얼음 화살로 직선 상의 3명의 적을 꿰뚫어 150%의 데미지로 공격합니다.</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>얼음 탄환을 발사해 주변 3병의 적에게 200%의 데미지로 공격합니다.</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>더 많은 얼음 탄환을 발사해 주변 7명의 적에게 200%의 데미지로 공격합니다.</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>오브의 기운을 응축하여 주변 적 5명에게 400%의 데미지로 공격합니다.</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <t>주변 지역에 랜덤하게 얼음 운석을 떨어뜨려 모든 적에게 각각 X%의 피해를 입힌다.</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>오브의 기운을 응축하여 전방으로 발사해 모든 적에게 X%의 피해를 입힌다.</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>거대한 얼음 폭풍을 발생시켜 모든 적에게 X%의 피해를 입힌다.</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>1명의 적에게 저주를 내려 행동을 멈추고 X%의 피해를 입힌다</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>얼음 영역을 생성 해 모든 적을 얼리고 X%의 피해를 입힌다.</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>전방으로 얼음 용을 발사해 모든 적에게 X%의 데미지를 줍니다.</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>오브의 기운을 폭발시켜 주변 모든 적에게 X%의 데미지를 줍니다.</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>얼음 폭풍을 소환해 주변 모든 적에게 X%의 데미지로 공격합니다.</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>거대한 빙하를 소환해 1명의 적에게 X%의 데미지를 주며 내려찍습니다.</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>오브의 기운을 응축하여 주변 적 5명에게 X%의 데미지로 공격합니다.</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>얼음 방패를 소환해 6초간 전투력의 X%만큼 데미지를 막습니다.</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>더 많은 얼음 탄환을 발사해 주변 7명의 적에게 X%의 데미지로 공격합니다.</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>얼음 탄환을 발사해 주변 3병의 적에게 X%의 데미지로 공격합니다.</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>강력한 얼음 화살로 직선 상의 3명의 적을 꿰뚫어 X%의 데미지로 공격합니다.</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>얼음 화살로 1명의 적에게 X%의 데미지로 공격합니다.</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>전방의 모든 적을 얼리는 폭풍을 소환 해 X%의 피해를 입힌다.</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Skills_1</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Skills_2</t>
+  </si>
+  <si>
+    <t>Skills_3</t>
+  </si>
+  <si>
+    <t>Skills_4</t>
+  </si>
+  <si>
+    <t>Skills_5</t>
+  </si>
+  <si>
+    <t>Skills_6</t>
+  </si>
+  <si>
+    <t>Skills_7</t>
+  </si>
+  <si>
+    <t>Skills_8</t>
+  </si>
+  <si>
+    <t>Skills_9</t>
+  </si>
+  <si>
+    <t>Skills_10</t>
+  </si>
+  <si>
+    <t>Skills_11</t>
+  </si>
+  <si>
+    <t>Skills_12</t>
+  </si>
+  <si>
+    <t>Skills_13</t>
+  </si>
+  <si>
+    <t>Skills_14</t>
+  </si>
+  <si>
+    <t>Skills_15</t>
+  </si>
+  <si>
+    <t>Skills_16</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -530,24 +573,24 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F49"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:G49"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F8" sqref="F8"/>
+      <selection activeCell="G10" sqref="G10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="9" style="5"/>
     <col min="2" max="2" width="18.625" style="5" customWidth="1"/>
-    <col min="3" max="3" width="69.625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="83.5" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="20" style="5" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="21" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="17.125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -555,328 +598,410 @@
         <v>1</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>37</v>
+        <v>21</v>
       </c>
       <c r="D1" s="3" t="s">
-        <v>36</v>
+        <v>20</v>
       </c>
       <c r="E1" s="1" t="s">
         <v>3</v>
       </c>
       <c r="F1" s="3" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+        <v>19</v>
+      </c>
+      <c r="G1" s="3"/>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A2" s="2">
         <v>1</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>20</v>
+        <v>4</v>
       </c>
       <c r="C2" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="D2" s="4">
         <v>100</v>
       </c>
       <c r="E2" s="5" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+        <v>38</v>
+      </c>
+      <c r="F2">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A3" s="2">
         <v>2</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>21</v>
+        <v>5</v>
       </c>
       <c r="C3" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="D3" s="4">
         <v>150</v>
       </c>
       <c r="E3" s="5" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+        <v>39</v>
+      </c>
+      <c r="F3">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A4" s="2">
         <v>3</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>23</v>
+        <v>7</v>
       </c>
       <c r="C4" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="D4" s="4">
         <v>200</v>
       </c>
       <c r="E4" s="5" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+        <v>40</v>
+      </c>
+      <c r="F4">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A5" s="2">
         <v>4</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>30</v>
+        <v>14</v>
       </c>
       <c r="C5" t="s">
-        <v>41</v>
+        <v>33</v>
       </c>
       <c r="D5" s="4">
         <v>200</v>
       </c>
       <c r="E5" s="5" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+        <v>41</v>
+      </c>
+      <c r="F5">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A6" s="2">
         <v>5</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>33</v>
+        <v>17</v>
       </c>
       <c r="C6" t="s">
-        <v>42</v>
+        <v>31</v>
       </c>
       <c r="D6" s="4">
         <v>400</v>
       </c>
       <c r="E6" s="5" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+        <v>42</v>
+      </c>
+      <c r="F6">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A7" s="2">
         <v>6</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>22</v>
+        <v>6</v>
+      </c>
+      <c r="C7" t="s">
+        <v>32</v>
       </c>
       <c r="D7" s="4">
-        <v>500</v>
+        <v>100</v>
       </c>
       <c r="E7" s="5" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+        <v>43</v>
+      </c>
+      <c r="F7">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A8" s="2">
         <v>7</v>
       </c>
       <c r="B8" s="5" t="s">
-        <v>34</v>
+        <v>18</v>
+      </c>
+      <c r="C8" t="s">
+        <v>30</v>
       </c>
       <c r="D8" s="4">
-        <v>600</v>
+        <v>1000</v>
       </c>
       <c r="E8" s="5" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+        <v>44</v>
+      </c>
+      <c r="F8">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A9" s="2">
         <v>8</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>24</v>
+        <v>8</v>
+      </c>
+      <c r="C9" t="s">
+        <v>29</v>
       </c>
       <c r="D9" s="4">
-        <v>720</v>
+        <v>600</v>
       </c>
       <c r="E9" s="5" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+        <v>45</v>
+      </c>
+      <c r="F9">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="2">
         <v>9</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>29</v>
+        <v>13</v>
+      </c>
+      <c r="C10" t="s">
+        <v>28</v>
       </c>
       <c r="D10" s="4">
-        <v>860</v>
+        <v>2000</v>
       </c>
       <c r="E10" s="5" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
+        <v>46</v>
+      </c>
+      <c r="F10">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A11" s="2">
         <v>10</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>25</v>
+        <v>9</v>
+      </c>
+      <c r="C11" t="s">
+        <v>27</v>
       </c>
       <c r="D11" s="4">
-        <v>1000</v>
+        <v>3000</v>
       </c>
       <c r="E11" s="5" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
+        <v>47</v>
+      </c>
+      <c r="F11">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A12" s="2">
         <v>11</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>32</v>
+        <v>16</v>
+      </c>
+      <c r="C12" t="s">
+        <v>22</v>
       </c>
       <c r="D12" s="4">
-        <v>2000</v>
+        <v>4000</v>
       </c>
       <c r="E12" s="5" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
+        <v>48</v>
+      </c>
+      <c r="F12">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A13" s="2">
         <v>12</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>31</v>
+        <v>15</v>
+      </c>
+      <c r="C13" t="s">
+        <v>23</v>
       </c>
       <c r="D13" s="4">
-        <v>3000</v>
+        <v>6000</v>
       </c>
       <c r="E13" s="5" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
+        <v>49</v>
+      </c>
+      <c r="F13">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A14" s="2">
         <v>13</v>
       </c>
       <c r="B14" s="5" t="s">
         <v>2</v>
       </c>
+      <c r="C14" t="s">
+        <v>24</v>
+      </c>
       <c r="D14" s="4">
-        <v>3600</v>
+        <v>8000</v>
       </c>
       <c r="E14" s="5" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
+        <v>50</v>
+      </c>
+      <c r="F14">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A15" s="2">
         <v>14</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>28</v>
+        <v>12</v>
+      </c>
+      <c r="C15" t="s">
+        <v>25</v>
       </c>
       <c r="D15" s="4">
-        <v>4000</v>
+        <v>10000</v>
       </c>
       <c r="E15" s="5" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
+        <v>51</v>
+      </c>
+      <c r="F15">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A16" s="2">
         <v>15</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>26</v>
+        <v>10</v>
+      </c>
+      <c r="C16" t="s">
+        <v>37</v>
       </c>
       <c r="D16" s="4">
-        <v>6000</v>
+        <v>12000</v>
       </c>
       <c r="E16" s="5" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
+        <v>52</v>
+      </c>
+      <c r="F16">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A17" s="2">
         <v>16</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>27</v>
+        <v>11</v>
+      </c>
+      <c r="C17" t="s">
+        <v>26</v>
       </c>
       <c r="D17" s="4">
-        <v>8000</v>
+        <v>16000</v>
       </c>
       <c r="E17" s="5" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
+        <v>53</v>
+      </c>
+      <c r="F17">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A18" s="2"/>
       <c r="B18" s="2"/>
       <c r="C18" s="4"/>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A19" s="2"/>
       <c r="B19" s="2"/>
       <c r="C19" s="4"/>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A20" s="2"/>
       <c r="B20" s="2"/>
       <c r="C20" s="4"/>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A21" s="2"/>
       <c r="B21" s="2"/>
       <c r="C21" s="4"/>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A22" s="2"/>
       <c r="B22" s="2"/>
       <c r="C22" s="4"/>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A23" s="2"/>
       <c r="B23" s="2"/>
       <c r="C23" s="4"/>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A24" s="2"/>
       <c r="B24" s="2"/>
       <c r="C24" s="4"/>
     </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A25" s="2"/>
       <c r="B25" s="2"/>
       <c r="C25" s="4"/>
     </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A26" s="2"/>
       <c r="B26" s="2"/>
       <c r="C26" s="4"/>
     </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A27" s="2"/>
       <c r="B27" s="2"/>
       <c r="C27" s="4"/>
     </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A28" s="2"/>
       <c r="B28" s="2"/>
       <c r="C28" s="4"/>
     </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A29" s="2"/>
       <c r="B29" s="2"/>
       <c r="C29" s="4"/>
     </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A30" s="2"/>
       <c r="B30" s="2"/>
       <c r="C30" s="4"/>
     </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A31" s="2"/>
       <c r="B31" s="2"/>
       <c r="C31" s="4"/>
     </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A32" s="2"/>
       <c r="B32" s="2"/>
       <c r="C32" s="4"/>
